--- a/excel/AI Agents for Visual Design.xlsx
+++ b/excel/AI Agents for Visual Design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49afe6381fd2a7e4/Desktop/DigeonTech/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0cbccc594207fa0/Desktop/digeon/digeon/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{06537813-D226-402A-A41B-6979F721F0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{283C909E-8E2E-4AA3-AF0E-5F9C20DFFF64}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{06537813-D226-402A-A41B-6979F721F0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B28AFC58-AEFE-43EE-BDB9-FB0FA7BB77C5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{40423418-81A8-4945-A13E-7EF46CF0B8DF}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{40423418-81A8-4945-A13E-7EF46CF0B8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>AI Agents for Visual Design</t>
   </si>
@@ -45,193 +45,106 @@
     <t>#</t>
   </si>
   <si>
-    <t>Best For</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>MidJourney</t>
   </si>
   <si>
     <t>Artistic image generation</t>
   </si>
   <si>
-    <t>midjourney.com</t>
-  </si>
-  <si>
-    <t>Image Generation</t>
-  </si>
-  <si>
     <t>DALL·E 3</t>
   </si>
   <si>
     <t>Realistic/styled images from text</t>
   </si>
   <si>
-    <t>openai.com/dall-e</t>
-  </si>
-  <si>
     <t>Stable Diffusion</t>
   </si>
   <si>
     <t>Custom open-source image models</t>
   </si>
   <si>
-    <t>huggingface.co</t>
-  </si>
-  <si>
     <t>Leonardo.Ai</t>
   </si>
   <si>
     <t>Game art, concept visuals</t>
   </si>
   <si>
-    <t>leonardo.ai</t>
-  </si>
-  <si>
     <t>Runway Gen-3</t>
   </si>
   <si>
     <t>AI-generated video content</t>
   </si>
   <si>
-    <t>runwayml.com</t>
-  </si>
-  <si>
-    <t>Video &amp; Visual Design</t>
-  </si>
-  <si>
     <t>AI-generated logo/brand kits</t>
   </si>
   <si>
-    <t>looka.com</t>
-  </si>
-  <si>
-    <t>Logo &amp; Branding</t>
-  </si>
-  <si>
     <t>Brandmark</t>
   </si>
   <si>
     <t>Simple AI logos and palettes</t>
   </si>
   <si>
-    <t>brandmark.io</t>
-  </si>
-  <si>
     <t>Hatchful</t>
   </si>
   <si>
     <t>Free AI-powered logo maker</t>
   </si>
   <si>
-    <t>hatchful.shopify.com</t>
-  </si>
-  <si>
     <t>Uizard</t>
   </si>
   <si>
     <t>UI wireframes and app mockups</t>
   </si>
   <si>
-    <t>uizard.io</t>
-  </si>
-  <si>
-    <t>UI / Web Design</t>
-  </si>
-  <si>
     <t>TeleportHQ</t>
   </si>
   <si>
     <t>AI-generated web designs &amp; code</t>
   </si>
   <si>
-    <t>teleporthq.io</t>
-  </si>
-  <si>
     <t>Visily</t>
   </si>
   <si>
     <t>AI no-code UI design</t>
   </si>
   <si>
-    <t>visily.ai</t>
-  </si>
-  <si>
     <t>Canva Magic Design</t>
   </si>
   <si>
     <t>AI-assisted presentations &amp; visuals</t>
   </si>
   <si>
-    <t>canva.com</t>
-  </si>
-  <si>
-    <t>Creative Design &amp; Editing</t>
-  </si>
-  <si>
     <t>Fotor AI Editor</t>
   </si>
   <si>
     <t>AI-powered photo editing</t>
   </si>
   <si>
-    <t>fotor.com</t>
-  </si>
-  <si>
-    <t>Photo Editing</t>
-  </si>
-  <si>
     <t>Remini AI</t>
   </si>
   <si>
     <t>Image enhancement &amp; upscaling</t>
   </si>
   <si>
-    <t>remini.ai</t>
-  </si>
-  <si>
     <t>Auto product image design</t>
   </si>
   <si>
-    <t>designify.com</t>
-  </si>
-  <si>
     <t>Lensa AI</t>
   </si>
   <si>
     <t>AI selfie avatars and portraits</t>
   </si>
   <si>
-    <t>prisma-ai.com/lensa</t>
-  </si>
-  <si>
-    <t>Avatar/Character Design</t>
-  </si>
-  <si>
     <t>Artbreeder</t>
   </si>
   <si>
     <t>AI-generated faces and characters</t>
   </si>
   <si>
-    <t>artbreeder.com</t>
-  </si>
-  <si>
     <t>Kaiber</t>
   </si>
   <si>
     <t>AI image-to-video transformations</t>
-  </si>
-  <si>
-    <t>kaiber.ai</t>
-  </si>
-  <si>
-    <t>Pricing Model</t>
   </si>
   <si>
     <r>
@@ -373,6 +286,48 @@
       </rPr>
       <t xml:space="preserve"> (paid avatar packs)</t>
     </r>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>Website/Source</t>
+  </si>
+  <si>
+    <t>https://www.midjourney.com/</t>
+  </si>
+  <si>
+    <t>https://openai.com/index/dall-e-3/</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/</t>
+  </si>
+  <si>
+    <t>https://runwayml.com/</t>
+  </si>
+  <si>
+    <t>https://looka.com/</t>
+  </si>
+  <si>
+    <t>https://www.shopify.com/tools/logo-maker</t>
+  </si>
+  <si>
+    <t>https://teleporthq.io/</t>
+  </si>
+  <si>
+    <t>https://www.canva.com/</t>
+  </si>
+  <si>
+    <t>https://www.visily.ai/</t>
+  </si>
+  <si>
+    <t>https://www.designify.com/</t>
+  </si>
+  <si>
+    <t>https://www.artbreeder.com/</t>
   </si>
 </sst>
 </file>
@@ -455,9 +410,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -495,7 +450,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -601,7 +556,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -743,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -753,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874B73DD-59FE-41BE-8D12-CAB99C169670}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,9 +717,8 @@
     <col min="1" max="1" width="5.6328125" customWidth="1"/>
     <col min="2" max="2" width="28.1796875" customWidth="1"/>
     <col min="3" max="3" width="32.36328125" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" customWidth="1"/>
-    <col min="5" max="5" width="27.08984375" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.08984375" customWidth="1"/>
+    <col min="5" max="6" width="36.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -780,117 +734,105 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -900,177 +842,159 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -1080,98 +1004,90 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="E20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://midjourney.com/" xr:uid="{879E4722-FEC7-4835-89D6-69CDB1A60BD9}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://openai.com/dall-e" xr:uid="{34276A9E-3ECF-4F82-B4D4-EE096E635E7A}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://huggingface.co/" xr:uid="{539137A2-FA3B-4C53-8A3B-EB95B44F58CF}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://leonardo.ai/" xr:uid="{34167273-E176-4EF2-BD29-D107C9DE66F5}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://runwayml.com/" xr:uid="{B05CBA56-AE5E-4524-B322-C57C0F28977B}"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://looka.com/" xr:uid="{324AA4BE-3A84-4498-AF56-60D3B8955235}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://brandmark.io/" xr:uid="{31971338-FC2C-431D-B0F0-4613F3071025}"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://hatchful.shopify.com/" xr:uid="{46F8E4B4-4220-47DE-8383-F48C7F199F1B}"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://uizard.io/" xr:uid="{741B2C89-6C1A-4857-92B6-03AEF5020C9B}"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://teleporthq.io/" xr:uid="{47C921D2-9893-4466-A33E-9A3032062E58}"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://visily.ai/" xr:uid="{5EEB22CC-08D1-4302-B749-D167F7A74605}"/>
-    <hyperlink ref="D14" r:id="rId12" display="https://canva.com/" xr:uid="{B70D178F-78C4-4D5B-B910-2D1FEDA56F9A}"/>
-    <hyperlink ref="D15" r:id="rId13" display="https://fotor.com/" xr:uid="{B615FFAD-CE5A-451F-8F79-64A4C1B83652}"/>
-    <hyperlink ref="D16" r:id="rId14" display="https://remini.ai/" xr:uid="{63E27C65-8E64-4607-8CA6-3873A58C01D8}"/>
-    <hyperlink ref="D17" r:id="rId15" display="https://designify.com/" xr:uid="{9C5EEE08-70D7-49CB-B1E5-A81AF4ABE1F9}"/>
-    <hyperlink ref="D18" r:id="rId16" display="https://prisma-ai.com/lensa" xr:uid="{30F18E5A-3CE1-4D3E-9DDB-566F4E820E69}"/>
-    <hyperlink ref="D19" r:id="rId17" display="https://artbreeder.com/" xr:uid="{2AE82F51-4E49-434C-85AA-1A024BA23D70}"/>
-    <hyperlink ref="D20" r:id="rId18" display="https://kaiber.ai/" xr:uid="{BF27CED8-4624-4892-BCDA-BA6CD5AC6E05}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{F5195852-50B4-4643-8A2C-917B4A0F21AA}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{E6CC6709-5F4F-4795-AAD0-F79447BD4907}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{E07B8FF6-6EF0-40F3-9985-41136F312253}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{81F1C974-4EF9-463C-8F95-5C3671FF6D9E}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{9A7268B2-C186-4ED9-B2B5-541C104F0A74}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{1F7D77E8-EEA5-44A1-83B4-C5A6C6DC7764}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{A161B43E-84F3-4CC7-A51C-5C2B067AA87B}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{C73BE259-CA7C-4261-807E-6E5A5CE84B32}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{EF33895D-9939-4CD2-AB5A-0016E648DC5C}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{AC9100A9-5BA7-4B88-B19D-AAFCE6FBCA0E}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{42197850-7430-44B0-A064-0F6A10EEFEF6}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{E4A4A20C-C044-4787-B0DA-A3E81FD8ED22}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{6581BDCF-402D-4684-8DD1-8F3EB7946834}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{E70C885E-E2EE-4EF1-9810-07EC9A217636}"/>
+    <hyperlink ref="E17" r:id="rId15" xr:uid="{3611C67A-F064-4A33-A0D8-0D4C75879E99}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{2C74472F-1825-40EF-A67B-06AA32A470F4}"/>
+    <hyperlink ref="E19" r:id="rId17" xr:uid="{3161A85F-A252-4457-81C2-21B1865BA514}"/>
+    <hyperlink ref="E20" r:id="rId18" xr:uid="{40DB1CD0-4706-408F-B7CC-CB83A6B5A8A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
